--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/15/seed3/result_data_KNN.xlsx
@@ -547,7 +547,7 @@
         <v>2.91</v>
       </c>
       <c r="C8" t="n">
-        <v>-13.176</v>
+        <v>-12.741</v>
       </c>
       <c r="D8" t="n">
         <v>-8.029999999999999</v>
@@ -575,7 +575,7 @@
         <v>6.17</v>
       </c>
       <c r="C10" t="n">
-        <v>-13.428</v>
+        <v>-13.021</v>
       </c>
       <c r="D10" t="n">
         <v>-8.85</v>
@@ -603,7 +603,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.572</v>
+        <v>-10.616</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -687,7 +687,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.962</v>
+        <v>-11.865</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-12.992</v>
+        <v>-13.075</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1205,7 +1205,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.992</v>
+        <v>-13.837</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1387,7 +1387,7 @@
         <v>4.88</v>
       </c>
       <c r="C68" t="n">
-        <v>-10.596</v>
+        <v>-10.809</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1513,7 +1513,7 @@
         <v>10.09</v>
       </c>
       <c r="C77" t="n">
-        <v>-13.702</v>
+        <v>-12.954</v>
       </c>
       <c r="D77" t="n">
         <v>-6.2</v>
@@ -1527,7 +1527,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-13.844</v>
+        <v>-12.798</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1569,7 +1569,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.586</v>
+        <v>-13.404</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1583,7 +1583,7 @@
         <v>5.26</v>
       </c>
       <c r="C82" t="n">
-        <v>-12.174</v>
+        <v>-11.94</v>
       </c>
       <c r="D82" t="n">
         <v>-7.37</v>
